--- a/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,52%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0,72; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>19,12; 35,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>0,38; 2,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>21,51; 32,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0,12; 1,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,38; 1,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,52; 2,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>21,44; 30,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,96%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,18; 2,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,14; 1,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>9,59; 21,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,52; 2,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,15; 1,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,29; 1,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>12,28; 19,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,49; 1,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,22; 1,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,26; 1,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>12,45; 18,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,57 +941,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,4; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>9,16; 24,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,2; 1,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,4; 2,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,45; 2,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,89; 12,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,11; 0,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,5; 2,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,43; 1,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,84; 14,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,34; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,35; 2,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,47; 2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>7,54; 19,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,15; 1,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,95; 3,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,59; 2,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>13,47; 23,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,43; 1,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,84; 2,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,72; 2,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>12,43; 19,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,32; 1,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,44; 1,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,55; 1,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>13,67; 20,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,46; 1,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,78; 1,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,63; 1,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>6,49; 18,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,44; 0,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,69; 1,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>7,97; 17,65</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,05</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,55</t>
+          <t>0,75; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 35,28</t>
+          <t>19,59; 35,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,34</t>
+          <t>0,41; 2,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 32,21</t>
+          <t>21,95; 32,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,08</t>
+          <t>0,13; 1,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,65</t>
+          <t>0,33; 1,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,0</t>
+          <t>0,46; 1,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 30,88</t>
+          <t>22,01; 30,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,38</t>
+          <t>0,18; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,43</t>
+          <t>0,14; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 21,31</t>
+          <t>9,47; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,52</t>
+          <t>0,42; 2,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,66</t>
+          <t>0,15; 1,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,73</t>
+          <t>0,29; 1,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,63</t>
+          <t>12,07; 19,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,79</t>
+          <t>0,47; 1,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,19</t>
+          <t>0,26; 1,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,23</t>
+          <t>0,25; 1,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,57</t>
+          <t>12,14; 18,22</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,64</t>
+          <t>0,4; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 24,47</t>
+          <t>8,67; 23,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,83</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,63</t>
+          <t>0,39; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,76</t>
+          <t>0,45; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,95</t>
+          <t>0,86; 12,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,98</t>
+          <t>0,11; 0,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,05</t>
+          <t>0,51; 2,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,83</t>
+          <t>0,46; 1,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 14,68</t>
+          <t>1,91; 14,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,87</t>
+          <t>0,34; 1,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,59</t>
+          <t>0,35; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,47</t>
+          <t>0,45; 2,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,05</t>
+          <t>8,51; 18,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,81</t>
+          <t>0,24; 1,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,11</t>
+          <t>0,94; 3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,54</t>
+          <t>0,56; 2,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 23,21</t>
+          <t>13,43; 22,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,6</t>
+          <t>0,38; 1,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,32</t>
+          <t>0,86; 2,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,01</t>
+          <t>0,72; 2,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,48</t>
+          <t>12,52; 19,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,09</t>
+          <t>0,25; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,3</t>
+          <t>0,44; 1,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,48</t>
+          <t>0,56; 1,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,39</t>
+          <t>13,68; 20,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,3</t>
+          <t>0,46; 1,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,71</t>
+          <t>0,75; 1,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,45</t>
+          <t>0,62; 1,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,02</t>
+          <t>6,46; 18,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,99</t>
+          <t>0,46; 1,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,69; 1,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,33</t>
+          <t>0,7; 1,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,65</t>
+          <t>8,67; 17,71</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7085</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26188</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5674</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36452</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7890</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62640</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7239</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6653</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3001; 13361</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19631; 35309</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8140</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2125; 12042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6559</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29843; 44773</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1199; 11554</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3278; 16488</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3883; 15491</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51991; 73151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2624</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4191</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37569</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12024</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8068</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>60840</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1064; 14072</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>954; 8702</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10407</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15302; 33792</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2762; 15465</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1101; 11997</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12900</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29590; 46871</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5793; 21776</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3649; 17336</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3247; 17007</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>49359; 74122</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4848</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15502</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6526</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14325</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10873</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8626</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29827</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1811; 13024</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7295</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8779; 24111</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>964; 8674</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2086; 13142</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2307; 13245</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2851; 40771</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>976; 8488</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4998; 20561</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4252; 17974</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8308; 62122</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5805</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5809</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16373</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31937</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9217</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14528</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>48310</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1680; 9491</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1923; 14581</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2277; 11900</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10727; 23808</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1653; 12300</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6819; 22268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3663; 16485</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24530; 41705</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4432; 16990</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10904; 29516</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8343; 24140</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38637; 59887</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>81334</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>120283</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>201617</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4736; 20677</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9457; 26765</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10603; 27109</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>66947; 97983</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10664; 29730</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18997; 41757</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14413; 35890</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57911; 162248</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19490; 44763</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32174; 61541</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29413; 54728</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>120183; 245408</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>